--- a/plugins/exelphp/template/kvitansiya.xlsx
+++ b/plugins/exelphp/template/kvitansiya.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Мижоз раками:</t>
   </si>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:E27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2073,17 +2073,15 @@
         <v>3</v>
       </c>
       <c r="B20" s="142"/>
-      <c r="C20" s="105" t="str">
-        <f>C5</f>
-        <v>Рахмонова  Гулсора Абдулхакимовна</v>
+      <c r="C20" s="105" t="s">
+        <v>4</v>
       </c>
       <c r="D20" s="105"/>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
       <c r="G20" s="105"/>
-      <c r="H20" s="156" t="str">
-        <f>H5</f>
-        <v>245 000,00</v>
+      <c r="H20" s="156" t="s">
+        <v>5</v>
       </c>
       <c r="I20" s="156"/>
       <c r="J20" s="157"/>
@@ -2195,7 +2193,7 @@
       </c>
       <c r="B23" s="143"/>
       <c r="C23" s="128" t="str">
-        <f>C8</f>
+        <f>C20</f>
         <v>Рахмонова  Гулсора Абдулхакимовна</v>
       </c>
       <c r="D23" s="129"/>
@@ -2238,7 +2236,6 @@
       </c>
       <c r="B24" s="167"/>
       <c r="C24" s="102">
-        <f>C9</f>
         <v>75555</v>
       </c>
       <c r="D24" s="102"/>
@@ -2285,9 +2282,9 @@
         <v>16</v>
       </c>
       <c r="B25" s="145"/>
-      <c r="C25" s="162" t="str">
-        <f>C10</f>
-        <v>Икки юз кирк беш минг сум 0 тийин</v>
+      <c r="C25" s="162" t="e">
+        <f>UPPER(LEFT(Formula!B20,1))&amp;RIGHT(Formula!B20,LEN(Formula!B20)-1)</f>
+        <v>#REF!</v>
       </c>
       <c r="D25" s="163"/>
       <c r="E25" s="163"/>
